--- a/examples/DropsTestExample.xlsx
+++ b/examples/DropsTestExample.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F443D-DC1E-454D-A787-CB7BE336A727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-37360" yWindow="1960" windowWidth="18300" windowHeight="17560" xr2:uid="{C078BFE5-CB95-AB43-9140-1B62DB89791E}"/>
+    <workbookView windowWidth="24555" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>TFName</t>
+  </si>
+  <si>
+    <t>TFDescription</t>
+  </si>
   <si>
     <t>baseURL</t>
   </si>
@@ -42,54 +31,46 @@
     <t>Password</t>
   </si>
   <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Login 1</t>
+  </si>
+  <si>
+    <t>Login with Username and Password</t>
+  </si>
+  <si>
+    <t>https://app-eu.earthsquad.global/api/rest-auth/login/</t>
+  </si>
+  <si>
     <t>test151</t>
   </si>
   <si>
     <t>bb140272!</t>
   </si>
   <si>
-    <t>https://app-eu.earthsquad.global/api/rest-auth/login/</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
     <t>[{"baseURL": "https://app-eu.earthsquad.global/api/rest-auth/login/","Username":"test151","Password":"bb140272!"}]</t>
   </si>
   <si>
-    <t>TFName</t>
-  </si>
-  <si>
-    <t>TFDescription</t>
-  </si>
-  <si>
-    <t>Login 1</t>
-  </si>
-  <si>
     <t>Login 2</t>
-  </si>
-  <si>
-    <t>Login with Username and Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,18 +78,355 @@
       <sz val="10"/>
       <color rgb="FF008080"/>
       <name val="Menlo"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,28 +434,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -186,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,26 +819,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -271,23 +854,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,90 +995,83 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1771157A-AD36-4846-BB39-339247F0A5E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="51.375" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BCA73E9C-2662-9740-B28A-F40781884EC3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{1624A2E0-3017-A24C-8BEF-52F734638001}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://app-eu.earthsquad.global/api/rest-auth/login/"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://app-eu.earthsquad.global/api/rest-auth/login/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/DropsTestExample.xlsx
+++ b/examples/DropsTestExample.xlsx
@@ -1,97 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101A18F-6C07-964D-A539-9A6E09E2C871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="4620" windowWidth="24560" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7380" yWindow="4620" windowWidth="24560" windowHeight="11680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Testcases" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testcases" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>TFName</t>
-  </si>
-  <si>
-    <t>TFDescription</t>
-  </si>
-  <si>
-    <t>baseURL</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Login 1</t>
-  </si>
-  <si>
-    <t>Login with Username and Password</t>
-  </si>
-  <si>
-    <t>https://app-eu.earthsquad.global/api/rest-auth/login/</t>
-  </si>
-  <si>
-    <t>test151</t>
-  </si>
-  <si>
-    <t>bb140272!</t>
-  </si>
-  <si>
-    <t>Login 2</t>
-  </si>
-  <si>
-    <t>test152</t>
-  </si>
-  <si>
-    <t>TC#</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF008080"/>
       <name val="Menlo"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF008080"/>
+      <sz val="10"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,27 +59,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -389,86 +331,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42" customWidth="1"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="51.33203125" customWidth="1" min="4" max="4"/>
+    <col width="21.6640625" customWidth="1" min="6" max="6"/>
+    <col width="42" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TC#</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TFName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TFDescription</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>baseURL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Login 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Login with Username and Password</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>https://app-eu.earthsquad.global/api/rest-auth/login/</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>test151</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bb140272!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Login 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Login with Username and Password</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>https://app-eu.earthsquad.global/api/rest-auth/login/</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>test152</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>bb140272!</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
 </file>